--- a/表格/AutoGenerateLanguage.xlsx
+++ b/表格/AutoGenerateLanguage.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -30,6 +30,60 @@
   </si>
   <si>
     <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蓝色步兵</t>
+  </si>
+  <si>
+    <t xml:space="preserve">红色步兵</t>
+  </si>
+  <si>
+    <t xml:space="preserve">步兵队长</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">战士</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">普通攻击</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳跃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">盾牌防守</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UILanguage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">进入游戏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">设置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">音量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开关</t>
+  </si>
+  <si>
+    <t xml:space="preserve">音乐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">音效</t>
+  </si>
+  <si>
+    <t xml:space="preserve">确定</t>
   </si>
 </sst>
 </file>
@@ -120,6 +174,160 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>178940420</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>178979727</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>1421729370</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>91216312</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>88134997</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>1351039565</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>-1257327582</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>-347589321</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>-487833582</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>1015751757</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>-50860896</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>337257549</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>-384687027</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>107007938</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/表格/AutoGenerateLanguage.xlsx
+++ b/表格/AutoGenerateLanguage.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -32,9 +32,6 @@
     <t xml:space="preserve">C</t>
   </si>
   <si>
-    <t xml:space="preserve">Monster</t>
-  </si>
-  <si>
     <t xml:space="preserve">蓝色步兵</t>
   </si>
   <si>
@@ -44,15 +41,9 @@
     <t xml:space="preserve">步兵队长</t>
   </si>
   <si>
-    <t xml:space="preserve">Player</t>
-  </si>
-  <si>
     <t xml:space="preserve">战士</t>
   </si>
   <si>
-    <t xml:space="preserve">Skill</t>
-  </si>
-  <si>
     <t xml:space="preserve">普通攻击</t>
   </si>
   <si>
@@ -60,9 +51,6 @@
   </si>
   <si>
     <t xml:space="preserve">盾牌防守</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UILanguage</t>
   </si>
   <si>
     <t xml:space="preserve">进入游戏</t>
@@ -178,154 +166,126 @@
       <c r="A4" s="1">
         <v>178940420</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
         <v>178979727</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
         <v>1421729370</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
         <v>91216312</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
         <v>88134997</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
         <v>1351039565</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
         <v>-1257327582</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
         <v>-347589321</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
         <v>-487833582</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
         <v>1015751757</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
         <v>-50860896</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
         <v>337257549</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
         <v>-384687027</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
         <v>107007938</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
